--- a/data/ModelF_Trastuzumab_Params.xlsx
+++ b/data/ModelF_Trastuzumab_Params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527FDF6-1975-2A4B-BC35-41AD3D5E1043}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="4540" windowWidth="26960" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="1840" yWindow="1080" windowWidth="26960" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +62,7 @@
     <definedName name="VtumDS">Sheet1!$F$33</definedName>
     <definedName name="VtumS">Sheet1!$F$32</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="172">
   <si>
     <t>Parameter</t>
   </si>
@@ -587,12 +588,15 @@
   </si>
   <si>
     <t>keDMtot</t>
+  </si>
+  <si>
+    <t>guess/calc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -783,687 +787,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -1726,6 +1050,176 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1845,21 +1339,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
-  <autoFilter ref="A1:J65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Order" dataDxfId="77"/>
-    <tableColumn id="2" name="ParamType" dataDxfId="76"/>
-    <tableColumn id="3" name="Molecule" dataDxfId="75"/>
-    <tableColumn id="4" name="Description" dataDxfId="74"/>
-    <tableColumn id="5" name="Parameter" dataDxfId="73"/>
-    <tableColumn id="6" name="Value" dataDxfId="72"/>
-    <tableColumn id="7" name="Units" dataDxfId="71"/>
-    <tableColumn id="8" name="Source" dataDxfId="70"/>
-    <tableColumn id="10" name="Formula" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Comment or Reference" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2186,11 +1680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3920,21 +3414,21 @@
       <c r="E53" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="14">
         <f>VD1_/VD3_*k13d_prop*3</f>
         <v>0.8307692307692307</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" s="15" t="str">
+      <c r="H53" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="23" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=VD1_/VD3_*k13d_prop*3</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J53" s="20" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4482,107 +3976,107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F280">
-    <cfRule type="containsText" dxfId="89" priority="28" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="88" priority="26">
+    <cfRule type="expression" dxfId="37" priority="26">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K28 H43:I46 K43:K46 I3:I65 A71:K1048576 D46 C43:C46 C42:K42 C47:K65 A42:B65 A30:K41 C29:K29 C23:G28 A23:B29 A1:K22">
-    <cfRule type="containsText" dxfId="87" priority="25" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I22 H29:I65 I3:I65 H71:I1048576">
-    <cfRule type="containsText" dxfId="86" priority="23" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="24" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I65 H71:I1048576">
-    <cfRule type="containsText" dxfId="84" priority="18" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="19" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="20" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="21" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="22" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:K70 A66:A70">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I70">
-    <cfRule type="containsText" dxfId="31" priority="15" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="16" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",I66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I70">
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",I66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:H70">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:H70">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:H70">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:H70">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H66)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/ModelF_Trastuzumab_Params.xlsx
+++ b/data/ModelF_Trastuzumab_Params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TumorModeling_IMA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527FDF6-1975-2A4B-BC35-41AD3D5E1043}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99487A5-AB29-194A-8AB1-39741E31FD59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="1080" windowWidth="26960" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <definedName name="VtumDS">Sheet1!$F$33</definedName>
     <definedName name="VtumS">Sheet1!$F$32</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="178">
   <si>
     <t>Parameter</t>
   </si>
@@ -591,13 +591,31 @@
   </si>
   <si>
     <t>guess/calc</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>used for Vlink model</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Tissue Volume</t>
+  </si>
+  <si>
+    <t>V3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,6 +651,12 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -690,7 +714,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,6 +785,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -787,7 +823,357 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1339,21 +1725,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J65" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:J65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="36">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1681,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53:J53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2798,7 +3184,7 @@
         <v>52</v>
       </c>
       <c r="I34" s="15" t="str">
-        <f t="shared" ref="I34:I70" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F34),"")</f>
+        <f t="shared" ref="I34:I72" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F34),"")</f>
         <v>=VD3_</v>
       </c>
       <c r="J34" s="9"/>
@@ -3974,110 +4360,347 @@
         <v>160</v>
       </c>
     </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>77</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F71" s="3">
+        <f>VD1_</f>
+        <v>2.1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=VD1_</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>78</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="3">
+        <f>VD2_</f>
+        <v>1.3</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=VD2_</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="24">
+        <v>79</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="26">
+        <f>VD3_</f>
+        <v>0.1</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="27" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F73),"")</f>
+        <v>=VD3_</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F280">
-    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="73" priority="63" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH("derived",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="37" priority="26">
+    <cfRule type="expression" dxfId="72" priority="61">
       <formula>$H2="fit"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K28 H43:I46 K43:K46 I3:I65 A71:K1048576 D46 C43:C46 C42:K42 C47:K65 A42:B65 A30:K41 C29:K29 C23:G28 A23:B29 A1:K22">
-    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="calc">
+  <conditionalFormatting sqref="J23:K28 H43:I46 K43:K46 I3:I65 A74:K1048576 D46 C43:C46 C42:K42 C47:K65 A42:B65 A30:K41 C29:K29 C23:G28 A23:B29 A1:K22">
+    <cfRule type="containsText" dxfId="71" priority="60" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I22 H29:I65 I3:I65 H71:I1048576">
-    <cfRule type="containsText" dxfId="35" priority="23" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H1:I22 H29:I65 I3:I65 H74:I1048576">
+    <cfRule type="containsText" dxfId="70" priority="58" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="24" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="69" priority="59" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I65 H71:I1048576">
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H1:I65 H74:I1048576">
+    <cfRule type="containsText" dxfId="68" priority="53" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="67" priority="54" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="66" priority="55" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="65" priority="56" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="64" priority="57" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:K70 A66:A70">
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="63" priority="52" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I70">
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="62" priority="50" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="61" priority="51" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",I66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I70">
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="60" priority="45" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="59" priority="46" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="58" priority="47" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="57" priority="48" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",I66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:H70">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="55" priority="44" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:H70">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:H70">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="52" priority="37" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="51" priority="38" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="49" priority="40" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66:H70">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="47" priority="36" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:G73 I71:K73">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",A71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:I73">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:I73">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",I71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",I71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
